--- a/datasheet/controlTable.xlsx
+++ b/datasheet/controlTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\DN23E08 DN24F08 NANO 8-channel analog expansion board manual\ARDUINO code(sketch)\vscode\DN23E08_DN24F08_modbus\DN23E08_DN24F08_modbus\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA11DF9F-BFCB-4654-A9DB-4B542768A1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8316F208-3277-4FEB-8F82-306C560169D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{272BAFCC-8C12-46E3-A83E-763582DC3376}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>NO</t>
   </si>
@@ -112,6 +112,39 @@
 Write Single Coil (05),
 Write Multiple Coil (15)
 </t>
+  </si>
+  <si>
+    <t>InputRegister</t>
+  </si>
+  <si>
+    <t>ReadInputRegister(04)</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>IO Name</t>
   </si>
 </sst>
 </file>
@@ -149,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,11 +190,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -172,10 +220,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D770278-3195-4DFE-A562-E2C929AF75A1}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +572,9 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
@@ -529,231 +582,415 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>6</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>7</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>2</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>6</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>7</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/datasheet/controlTable.xlsx
+++ b/datasheet/controlTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\DN23E08 DN24F08 NANO 8-channel analog expansion board manual\ARDUINO code(sketch)\vscode\DN23E08_DN24F08_modbus\DN23E08_DN24F08_modbus\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8316F208-3277-4FEB-8F82-306C560169D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753DE30D-5FF5-45FF-8DCB-FB083B71F159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{272BAFCC-8C12-46E3-A83E-763582DC3376}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>NO</t>
   </si>
@@ -145,6 +145,22 @@
   </si>
   <si>
     <t>IO Name</t>
+  </si>
+  <si>
+    <t>Device-ID</t>
+  </si>
+  <si>
+    <t>BaudRate[0-7]
+[300,600,1200,2400,4800,9600,14400,19200]</t>
+  </si>
+  <si>
+    <t>7-Segment Number</t>
+  </si>
+  <si>
+    <t>holdingRegister</t>
+  </si>
+  <si>
+    <t>ReadholdingRegister(03)</t>
   </si>
 </sst>
 </file>
@@ -182,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,11 +221,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -228,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D770278-3195-4DFE-A562-E2C929AF75A1}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,6 +1025,57 @@
         <v>34</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
